--- a/1004-finalproject.xlsx
+++ b/1004-finalproject.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Desktop/DSGA-1004/final-project-recommend-a-team-name/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0D4072-75E1-794E-9328-0BBC633732B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF68B85-4ABE-2747-903C-78B34ED61CF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="2240" windowWidth="28240" windowHeight="17440" xr2:uid="{5F2E364D-61DA-3345-A1DF-8F9318C8F140}"/>
+    <workbookView xWindow="2420" yWindow="2180" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{5F2E364D-61DA-3345-A1DF-8F9318C8F140}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Full" sheetId="1" r:id="rId1"/>
+    <sheet name="Down-sample" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,12 +58,20 @@
   <si>
     <t>0.09703220263069072 </t>
   </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No log1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,8 +87,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +127,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -134,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,11 +185,71 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -478,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB2BF0-D070-F348-B282-4D2CE262E8DE}">
   <dimension ref="B3:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -687,7 +770,7 @@
       <c r="C15" s="6">
         <v>0.111870756513142</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="9">
         <v>0.116893095397929</v>
       </c>
       <c r="E15" s="6">
@@ -725,7 +808,7 @@
       <c r="H16" s="6">
         <v>6.1250000000000002E-3</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="9">
         <v>6.6677999999999998E-3</v>
       </c>
       <c r="J16" s="6">
@@ -865,6 +948,577 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C6:E8 C14:E17 C22:E24">
+    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:J8 H14:J16 H22:J24">
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD910AC-D67C-634B-98B5-8606CD758088}">
+  <dimension ref="B1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="34">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.106563490945239</v>
+      </c>
+      <c r="D6">
+        <v>9.6687339886435894E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.6231614363441198E-4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5.9442000000000002E-3</v>
+      </c>
+      <c r="I6">
+        <v>5.7911999999999903E-3</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3.7599999999999898E-5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.2332072274142301E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.77367514162655E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.2015099946716599E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.108063615481113</v>
+      </c>
+      <c r="D7">
+        <v>0.103989382839542</v>
+      </c>
+      <c r="E7">
+        <v>7.2191793488116093E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6.1863999999999999E-3</v>
+      </c>
+      <c r="I7">
+        <v>6.1381999999999904E-3</v>
+      </c>
+      <c r="J7">
+        <v>4.4517999999999901E-3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>2.12718454287146E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.9463150984275802E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.17231131420918E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.105806192217738</v>
+      </c>
+      <c r="D8">
+        <v>0.10555407024890499</v>
+      </c>
+      <c r="E8">
+        <v>9.1305265982770195E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>6.1431999999999997E-3</v>
+      </c>
+      <c r="I8">
+        <v>6.1732000000000002E-3</v>
+      </c>
+      <c r="J8">
+        <v>5.6146E-3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>2.0264813125132099E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.9922497238846201E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.5407448793001899E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="34">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.12038769840767501</v>
+      </c>
+      <c r="D14">
+        <v>0.108389711701222</v>
+      </c>
+      <c r="E14">
+        <v>4.5909415750272501E-4</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>6.71019999999999E-3</v>
+      </c>
+      <c r="I14">
+        <v>6.4887999999999899E-3</v>
+      </c>
+      <c r="J14">
+        <v>3.3800000000000002E-5</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.5740965603779999E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.9773855009587001E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.0893113218639699E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.124554300719371</v>
+      </c>
+      <c r="D15">
+        <v>0.12364069563152599</v>
+      </c>
+      <c r="E15">
+        <v>7.5368503575911502E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6.9176000000000003E-3</v>
+      </c>
+      <c r="I15">
+        <v>6.9442000000000002E-3</v>
+      </c>
+      <c r="J15">
+        <v>4.6561999999999897E-3</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>2.6941772580551599E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.58661450708122E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.2098745262459101E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0.12544932585819499</v>
+      </c>
+      <c r="D16">
+        <v>0.12561582915226899</v>
+      </c>
+      <c r="E16">
+        <v>0.10023124505411</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>7.02259999999999E-3</v>
+      </c>
+      <c r="I16">
+        <v>7.0477999999999999E-3</v>
+      </c>
+      <c r="J16">
+        <v>6.2249999999999996E-3</v>
+      </c>
+      <c r="L16" s="5">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>2.65285302413838E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.64423067478315E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.6238826775247999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="G20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="L20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:15" ht="34">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.132124554539163</v>
+      </c>
+      <c r="D22">
+        <v>0.12218145998449199</v>
+      </c>
+      <c r="E22">
+        <v>4.7314341631176201E-4</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>7.4308000000000004E-3</v>
+      </c>
+      <c r="I22">
+        <v>7.045E-3</v>
+      </c>
+      <c r="J22">
+        <v>3.4199999999999903E-5</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.8307457399118101E-2</v>
+      </c>
+      <c r="N22">
+        <v>2.4933184486991E-2</v>
+      </c>
+      <c r="O22">
+        <v>2.6705645020917899E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.13665294883951101</v>
+      </c>
+      <c r="D23">
+        <v>0.13614199586328299</v>
+      </c>
+      <c r="E23">
+        <v>7.7496114946512804E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>7.6222E-3</v>
+      </c>
+      <c r="I23">
+        <v>7.7075999999999898E-3</v>
+      </c>
+      <c r="J23">
+        <v>4.8105999999999904E-3</v>
+      </c>
+      <c r="L23" s="5">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>2.99909814347557E-2</v>
+      </c>
+      <c r="N23">
+        <v>2.8993943313862999E-2</v>
+      </c>
+      <c r="O23">
+        <v>1.23831687612346E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="5">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.14082033469652699</v>
+      </c>
+      <c r="D24">
+        <v>0.13904499061711101</v>
+      </c>
+      <c r="E24">
+        <v>6.7235999999999997E-3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>7.9307999999999896E-3</v>
+      </c>
+      <c r="I24">
+        <v>7.8626000000000008E-3</v>
+      </c>
+      <c r="J24">
+        <v>0.107718588188919</v>
+      </c>
+      <c r="L24" s="5">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>3.04638576833321E-2</v>
+      </c>
+      <c r="N24">
+        <v>2.9800434174057502E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.76221261635407E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M22:O24 M14:O16 M6:O8">
+    <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:J8 H14:J16 H22:J24">
+    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E8 C14:E16 C22:E24">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1004-finalproject.xlsx
+++ b/1004-finalproject.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Desktop/DSGA-1004/final-project-recommend-a-team-name/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF68B85-4ABE-2747-903C-78B34ED61CF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EB5AF7-FE2C-EC42-BA90-6ED98EA69FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2180" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{5F2E364D-61DA-3345-A1DF-8F9318C8F140}"/>
+    <workbookView xWindow="2420" yWindow="2180" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{5F2E364D-61DA-3345-A1DF-8F9318C8F140}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
     <sheet name="Down-sample" sheetId="2" r:id="rId2"/>
+    <sheet name="Down-sample-log1p" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,12 +67,16 @@
     <t>No log1p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>log1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +99,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3B2322"/>
+      <name val="Courier"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -157,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,11 +205,47 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -949,10 +996,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:E8 C14:E17 C22:E24">
-    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J8 H14:J16 H22:J24">
-    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -962,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD910AC-D67C-634B-98B5-8606CD758088}">
   <dimension ref="B1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1511,12 +1558,395 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M22:O24 M14:O16 M6:O8">
+    <cfRule type="top10" dxfId="5" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:J8 H14:J16 H22:J24">
+    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E8 C14:E16 C22:E24">
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC46B05-2477-6F44-A5AC-1006B6FCBF94}">
+  <dimension ref="B1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="34">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9.2973417199434402E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.7769312277690701E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>5.4805990000000001E-3</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1.7391686895194599E-2</v>
+      </c>
+      <c r="O6" s="12">
+        <v>7.1245467794868698E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.11104717688910599</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5.1342846263454099E-5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12">
+        <v>6.4723999999999997E-3</v>
+      </c>
+      <c r="J7" s="13">
+        <v>4.6E-6</v>
+      </c>
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
+      <c r="N7" s="12">
+        <v>2.20001599863212E-2</v>
+      </c>
+      <c r="O7" s="13">
+        <v>1.12834661810301E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.11376430594292999</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.112268823008507</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.2686789553063899E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12">
+        <v>6.4628000000000003E-3</v>
+      </c>
+      <c r="I8" s="12">
+        <v>6.5196000000000004E-3</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1.6941999000000001E-3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>10</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2.32233351918976E-2</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2.2123238799175701E-2</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1.13768303987928E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="34">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="G20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="L20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:15" ht="34">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="L23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
+      <c r="L24" s="5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M22:O24 M14:O16 M6:M7">
     <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:J8 H14:J16 H22:J24">
+  <conditionalFormatting sqref="H14:J16 H22:J24 H6:H7">
     <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E8 C14:E16 C22:E24">
+  <conditionalFormatting sqref="C14:E16 C22:E24 C6:C7">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1004-finalproject.xlsx
+++ b/1004-finalproject.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Desktop/DSGA-1004/final-project-recommend-a-team-name/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EB5AF7-FE2C-EC42-BA90-6ED98EA69FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9C731-B9D6-E944-8CE9-4F64345D5A7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2180" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{5F2E364D-61DA-3345-A1DF-8F9318C8F140}"/>
+    <workbookView xWindow="2420" yWindow="2100" windowWidth="28240" windowHeight="17440" xr2:uid="{5F2E364D-61DA-3345-A1DF-8F9318C8F140}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
     <sheet name="Down-sample" sheetId="2" r:id="rId2"/>
-    <sheet name="Down-sample-log1p" sheetId="3" r:id="rId3"/>
+    <sheet name="Down-sample-transform" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,7 +68,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log1p</t>
+    <t xml:space="preserve">       Alpha
+Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,12 +116,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3B2322"/>
-      <name val="Courier"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -168,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,27 +216,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -307,6 +302,7268 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>regParam = 0.1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.9442000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1863999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1431999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53B2-E34E-89BB-3BECEEA3FD78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.71019999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9176000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.02259999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53B2-E34E-89BB-3BECEEA3FD78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rank = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.4308000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6222E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9307999999999896E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53B2-E34E-89BB-3BECEEA3FD78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1171823168"/>
+        <c:axId val="1057003120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171823168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057003120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057003120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>MPA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171823168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>regParam = 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.7911999999999903E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1381999999999904E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1732000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB0-424A-9327-9A6043B72BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4887999999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9442000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0477999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDB0-424A-9327-9A6043B72BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rank = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.045E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7075999999999898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8626000000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDB0-424A-9327-9A6043B72BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1171823168"/>
+        <c:axId val="1057003120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171823168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057003120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057003120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>MPA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171823168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>regParam = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>3.7599999999999898E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4517999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6146E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2706-FC40-BB12-40908EE1F019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$23:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.3800000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6561999999999897E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2249999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2706-FC40-BB12-40908EE1F019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rank = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.4199999999999903E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8105999999999904E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107718588188919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2706-FC40-BB12-40908EE1F019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1171823168"/>
+        <c:axId val="1057003120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171823168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057003120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057003120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.11000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>MPA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171823168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>regParam = 0.1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2332072274142301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.12718454287146E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0264813125132099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-416F-7749-BC81-07A6256B29AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5740965603779999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6941772580551599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.65285302413838E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-416F-7749-BC81-07A6256B29AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rank = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8307457399118101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.99909814347557E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.04638576833321E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-416F-7749-BC81-07A6256B29AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1171823168"/>
+        <c:axId val="1057003120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171823168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057003120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057003120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5000000000000003E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>MAP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171823168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>regParam = 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$14:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.77367514162655E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9463150984275802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9922497238846201E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80A8-984F-95A2-69F321646F82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9773855009587001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.58661450708122E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.64423067478315E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80A8-984F-95A2-69F321646F82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rank = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4933184486991E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8993943313862999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9800434174057502E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-80A8-984F-95A2-69F321646F82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1171823168"/>
+        <c:axId val="1057003120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171823168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057003120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057003120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5000000000000003E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>MAP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171823168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>regParam = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2015099946716599E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17231131420918E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5407448793001899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E3C-D84D-A4BD-8EE3EF0E4743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0893113218639699E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2098745262459101E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6238826775247999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E3C-D84D-A4BD-8EE3EF0E4743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rank = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Down-sample-transform'!$M$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6705645020917899E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.23831687612346E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.76221261635407E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E3C-D84D-A4BD-8EE3EF0E4743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1171823168"/>
+        <c:axId val="1057003120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171823168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057003120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057003120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>MAP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171823168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174498</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5CDDEF-EF21-B843-BE1B-9688CD74ED49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84018F0F-4186-254D-9B83-C7B01F30AC2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5E0ED6-A3C0-6247-AF46-AE867D1ECDC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13A9069-820C-384F-BFD5-7901364AA10C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0091A3E7-FE83-9744-8A66-3C01AF553A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3C4E4F-35B9-5441-885D-B5D1CB4AD431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,7 +7865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB2BF0-D070-F348-B282-4D2CE262E8DE}">
   <dimension ref="B3:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -996,10 +8253,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:E8 C14:E17 C22:E24">
-    <cfRule type="top10" dxfId="7" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J8 H14:J16 H22:J24">
-    <cfRule type="top10" dxfId="6" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1010,7 +8267,7 @@
   <dimension ref="B1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1558,13 +8815,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M22:O24 M14:O16 M6:O8">
-    <cfRule type="top10" dxfId="5" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J8 H14:J16 H22:J24">
-    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E8 C14:E16 C22:E24">
-    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1572,10 +8829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC46B05-2477-6F44-A5AC-1006B6FCBF94}">
-  <dimension ref="B1:O24"/>
+  <dimension ref="G4:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1583,207 +8840,147 @@
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="7:15">
       <c r="G4" s="8" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" ht="34">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="5" spans="7:15" ht="34">
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.1</v>
-      </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="4">
         <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M5" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>9.2973417199434402E-2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2.7769312277690701E-2</v>
-      </c>
+    <row r="6" spans="7:15">
       <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>5.4805990000000001E-3</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1E-3</v>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5.9442000000000002E-3</v>
+      </c>
+      <c r="I6">
+        <v>6.1863999999999999E-3</v>
+      </c>
+      <c r="J6">
+        <v>6.1431999999999997E-3</v>
       </c>
       <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="12">
-        <v>1.7391686895194599E-2</v>
-      </c>
-      <c r="O6" s="12">
-        <v>7.1245467794868698E-3</v>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>2.2332072274142301E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.12718454287146E-2</v>
+      </c>
+      <c r="O6">
+        <v>2.0264813125132099E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.11104717688910599</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5.1342846263454099E-5</v>
-      </c>
+    <row r="7" spans="7:15">
       <c r="G7" s="5">
-        <v>5</v>
-      </c>
-      <c r="I7" s="12">
-        <v>6.4723999999999997E-3</v>
-      </c>
-      <c r="J7" s="13">
-        <v>4.6E-6</v>
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>6.71019999999999E-3</v>
+      </c>
+      <c r="I7">
+        <v>6.9176000000000003E-3</v>
+      </c>
+      <c r="J7">
+        <v>7.02259999999999E-3</v>
       </c>
       <c r="L7" s="5">
-        <v>5</v>
-      </c>
-      <c r="N7" s="12">
-        <v>2.20001599863212E-2</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1.12834661810301E-6</v>
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>2.5740965603779999E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.6941772580551599E-2</v>
+      </c>
+      <c r="O7">
+        <v>2.65285302413838E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.11376430594292999</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.112268823008507</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2.2686789553063899E-2</v>
-      </c>
+    <row r="8" spans="7:15">
       <c r="G8" s="5">
-        <v>10</v>
-      </c>
-      <c r="H8" s="12">
-        <v>6.4628000000000003E-3</v>
-      </c>
-      <c r="I8" s="12">
-        <v>6.5196000000000004E-3</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1.6941999000000001E-3</v>
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>7.4308000000000004E-3</v>
+      </c>
+      <c r="I8">
+        <v>7.6222E-3</v>
+      </c>
+      <c r="J8">
+        <v>7.9307999999999896E-3</v>
       </c>
       <c r="L8" s="5">
-        <v>10</v>
-      </c>
-      <c r="M8" s="12">
-        <v>2.32233351918976E-2</v>
-      </c>
-      <c r="N8" s="12">
-        <v>2.2123238799175701E-2</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1.13768303987928E-3</v>
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>2.8307457399118101E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.99909814347557E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.04638576833321E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="H9" s="12"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
+    <row r="12" spans="7:15">
       <c r="G12" s="8" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" ht="34">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="13" spans="7:15" ht="34">
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.1</v>
-      </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="4">
         <v>10</v>
@@ -1792,102 +8989,120 @@
         <v>3</v>
       </c>
       <c r="M13" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
+    <row r="14" spans="7:15">
       <c r="G14" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5.7911999999999903E-3</v>
+      </c>
+      <c r="I14">
+        <v>6.1381999999999904E-3</v>
+      </c>
+      <c r="J14">
+        <v>6.1732000000000002E-3</v>
       </c>
       <c r="L14" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>1.77367514162655E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.9463150984275802E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.9922497238846201E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
+    <row r="15" spans="7:15">
       <c r="G15" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>6.4887999999999899E-3</v>
+      </c>
+      <c r="I15">
+        <v>6.9442000000000002E-3</v>
+      </c>
+      <c r="J15">
+        <v>7.0477999999999999E-3</v>
       </c>
       <c r="L15" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>1.9773855009587001E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.58661450708122E-2</v>
+      </c>
+      <c r="O15">
+        <v>2.64423067478315E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="5">
-        <v>10</v>
-      </c>
+    <row r="16" spans="7:15">
       <c r="G16" s="5">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>7.045E-3</v>
+      </c>
+      <c r="I16">
+        <v>7.7075999999999898E-3</v>
+      </c>
+      <c r="J16">
+        <v>7.8626000000000008E-3</v>
       </c>
       <c r="L16" s="5">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>2.4933184486991E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.8993943313862999E-2</v>
+      </c>
+      <c r="O16">
+        <v>2.9800434174057502E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+    <row r="20" spans="7:15">
       <c r="G20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="L20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="2:15" ht="34">
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="4">
+    <row r="21" spans="7:15" ht="34">
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.1</v>
-      </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" s="4">
         <v>10</v>
@@ -1896,59 +9111,103 @@
         <v>3</v>
       </c>
       <c r="M21" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N21" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
+    <row r="22" spans="7:15">
       <c r="G22" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3.7599999999999898E-5</v>
+      </c>
+      <c r="I22">
+        <v>4.4517999999999901E-3</v>
+      </c>
+      <c r="J22">
+        <v>5.6146E-3</v>
       </c>
       <c r="L22" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>1.2015099946716599E-5</v>
+      </c>
+      <c r="N22">
+        <v>1.17231131420918E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.5407448793001899E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="5">
-        <v>5</v>
-      </c>
+    <row r="23" spans="7:15">
       <c r="G23" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>3.3800000000000002E-5</v>
+      </c>
+      <c r="I23">
+        <v>4.6561999999999897E-3</v>
+      </c>
+      <c r="J23">
+        <v>6.2249999999999996E-3</v>
       </c>
       <c r="L23" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>2.0893113218639699E-5</v>
+      </c>
+      <c r="N23">
+        <v>1.2098745262459101E-2</v>
+      </c>
+      <c r="O23">
+        <v>1.6238826775247999E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="5">
-        <v>10</v>
-      </c>
+    <row r="24" spans="7:15">
       <c r="G24" s="5">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>3.4199999999999903E-5</v>
+      </c>
+      <c r="I24">
+        <v>4.8105999999999904E-3</v>
+      </c>
+      <c r="J24">
+        <v>0.107718588188919</v>
       </c>
       <c r="L24" s="5">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>2.6705645020917899E-5</v>
+      </c>
+      <c r="N24">
+        <v>1.23831687612346E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.76221261635407E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M22:O24 M14:O16 M6:M7">
-    <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
+  <conditionalFormatting sqref="C10:E11 C23:E24">
+    <cfRule type="top10" dxfId="1" priority="127" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:J16 H22:J24 H6:H7">
-    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:E16 C22:E24 C6:C7">
-    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  <conditionalFormatting sqref="C17:E17">
+    <cfRule type="top10" dxfId="0" priority="92" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>